--- a/biology/Botanique/Saxifraga_longifolia/Saxifraga_longifolia.xlsx
+++ b/biology/Botanique/Saxifraga_longifolia/Saxifraga_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga longifolia, la Saxifrage des Pyrénées Écouter, également appelée la Saxifrage à longues feuilles Écouter, est une espèce de plante monocarpique des falaises calcaires à grande rosette. 
-Lorsqu'elle fleurit (de mai à août)[1], elle produit une grande hampe (jusqu'à 80 cm) pouvant contenir plus de 100 fleurs puis meurt[2].
-Elle est endémique des Pyrénées et du nord de la péninsule Ibérique jusqu'à la province espagnole de León[3].
+Lorsqu'elle fleurit (de mai à août), elle produit une grande hampe (jusqu'à 80 cm) pouvant contenir plus de 100 fleurs puis meurt.
+Elle est endémique des Pyrénées et du nord de la péninsule Ibérique jusqu'à la province espagnole de León.
 </t>
         </is>
       </c>
